--- a/릴레이션.xlsx
+++ b/릴레이션.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,10 @@
   </si>
   <si>
     <t>gj;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필드명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,7 +925,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -946,21 +950,24 @@
         <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -968,13 +975,13 @@
       <c r="A4" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -982,10 +989,10 @@
       <c r="A5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -993,10 +1000,10 @@
       <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1004,13 +1011,13 @@
       <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>70</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1018,10 +1025,10 @@
       <c r="A8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1029,16 +1036,16 @@
       <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>77</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1046,13 +1053,13 @@
       <c r="A10" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>80</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>61</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0</v>
       </c>
     </row>
